--- a/biology/Botanique/Pâtisson/Pâtisson.xlsx
+++ b/biology/Botanique/Pâtisson/Pâtisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A2tisson</t>
+          <t>Pâtisson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pâtissons ou artichaut d'Espagne, bonnet-de-prêtre, bonnet d'électeur, couronne impériale, ciblème (Louisiane) sont un groupe de variétés cultivées comme légume de la famille des courges / cucurbitacées de petite taille[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pâtissons ou artichaut d'Espagne, bonnet-de-prêtre, bonnet d'électeur, couronne impériale, ciblème (Louisiane) sont un groupe de variétés cultivées comme légume de la famille des courges / cucurbitacées de petite taille. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A2tisson</t>
+          <t>Pâtisson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pâtissons, comme les courgerons, sont issus de l'espèce Cucurbita pepo var. ovifera, une forme particulière de l'espèce Cucurbita pepo , c'est-à-dire la courgette.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A2tisson</t>
+          <t>Pâtisson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle de la famille des cucurbitaceaes.
-Les patissons sont une variété de Cucurbita Pepo. Ce sont des plantes non coureuses, à grandes feuilles, d'un vert franc, entières ou à cinq lobes peu marqués. Le fruit très déprimé dans le sens de l'axe est beaucoup moins long que large ; le contour présente cinq ou dix excroissances obtuses divergentes, ou plus ou moins recourbées vers l'ombilic du fruit. Les patissons sont assez pleins ; la chair en est ferme, peu sucrée, mais assez farineuse. Leur écorce est lisse, de couleur et de volume variables. La graine est petite, relativement à celle des autres courges[2].
+Les patissons sont une variété de Cucurbita Pepo. Ce sont des plantes non coureuses, à grandes feuilles, d'un vert franc, entières ou à cinq lobes peu marqués. Le fruit très déprimé dans le sens de l'axe est beaucoup moins long que large ; le contour présente cinq ou dix excroissances obtuses divergentes, ou plus ou moins recourbées vers l'ombilic du fruit. Les patissons sont assez pleins ; la chair en est ferme, peu sucrée, mais assez farineuse. Leur écorce est lisse, de couleur et de volume variables. La graine est petite, relativement à celle des autres courges.
 			Plante et fleurs.
 			Culture de pâtisson.
 			Pâtisson panaché.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A2tisson</t>
+          <t>Pâtisson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A2tisson</t>
+          <t>Pâtisson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreuses recettes pour accommoder les pâtissons (bouillis, à la poêle, en gratin, farcis, etc.) ; de manière la plus simple, ils se cuisent à l'eau bouillante pendant quinze minutes et ont un goût qui se rapproche de celui de la courgette ou de l'artichaut.
 Il existe aussi des préparations en bocal, macérées dans du vinaigre de vin blanc, du sucre, du sel et des aromates (carottes, oignons, aneth, ail, éventuellement piment ou graines de moutarde). Le goût et la texture sont proches du cornichon malossol, bien que largement plus douceâtre.
